--- a/documents/Published/Horizontal Funnel/HorizontalFunnelByMAQSoftwareChecklist.xlsx
+++ b/documents/Published/Horizontal Funnel/HorizontalFunnelByMAQSoftwareChecklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PowerBI-CustomVisuals\documents\Published\Horizontal Funnel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitLab_PowerBIVisuals\documents\Published\Horizontal Funnel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7C70E8-F15A-4EF9-9222-0E7B791CDA34}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3E1E37-725C-4810-96F9-0DD2C32AB873}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{4AB92824-63E9-41E2-A760-A81835BDCF59}"/>
   </bookViews>
@@ -859,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD979CE-A2F4-4A57-BF74-C680FEBF31B0}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
